--- a/custom/demo/test/sample-input-data/accidental_discovery_and_epidemic/demo-analyses SALIOU.XLSX
+++ b/custom/demo/test/sample-input-data/accidental_discovery_and_epidemic/demo-analyses SALIOU.XLSX
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$H$36</definedName>
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>Vincent Laugier</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0">
@@ -35,7 +35,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">┌ Warning: Problem at line[31]. Unable to find a stay for patient.id[8176c1b2-e309-485f-be3f-650453a9ede0] patient.ref[29] starting before the date of the analyis request[2022-05-01T00:00:00+02:00].</t>
         </r>
@@ -48,7 +47,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Problem at row[33] of dataframe (line[34] of xlsx). Unable to find a stay for patient.id[b6cd219e-4d00-49c4-8805-28b14ebc4ca0] patient.ref[31] starting before the date of the analyis request[2022-05-11T00:00:00+02:00].</t>
         </r>
@@ -61,7 +59,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Problem at row[39] of dataframe (line[40] of xlsx). Unable to find a stay for patient.id[b1d51012-a9b9-486e-93ec-a3c05bc0504d] patient.ref[37] starting before the date of the analyis request[2022-05-11T00:00:00+02:00]</t>
         </r>
@@ -74,7 +71,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Problem at row[36] of dataframe (line[37] of xlsx). Unable to find a stay for patient.id[a5815a4e-3a62-4f0d-8a07-d724a1008624] patient.ref[34] starting before the date of the analyis request[2022-05-13T00:00:00+02:00].</t>
         </r>
@@ -111,7 +107,7 @@
     <t xml:space="preserve">result_raw_text</t>
   </si>
   <si>
-    <t xml:space="preserve">faeces</t>
+    <t xml:space="preserve">stool</t>
   </si>
   <si>
     <t xml:space="preserve">bacterial_culture_carbapenemase_producing_enterobacteriaceae</t>
@@ -132,7 +128,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,6 +156,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,7 +253,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -260,6 +261,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -271,6 +273,112 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -279,7 +387,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37:B59"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
